--- a/SeleniumDailyPractice/test.xlsx
+++ b/SeleniumDailyPractice/test.xlsx
@@ -20,16 +20,16 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Country</t>
+    <t>Ram</t>
   </si>
   <si>
-    <t>Santosh</t>
+    <t>Singh</t>
   </si>
   <si>
-    <t>test@123</t>
+    <t>Suresh</t>
   </si>
   <si>
-    <t>India</t>
+    <t>Verma</t>
   </si>
 </sst>
 </file>
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -87,18 +87,20 @@
       <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="0">
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
     </row>

--- a/SeleniumDailyPractice/test.xlsx
+++ b/SeleniumDailyPractice/test.xlsx
@@ -20,16 +20,16 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Ram</t>
+    <t>Country</t>
   </si>
   <si>
-    <t>Singh</t>
+    <t>Santosh</t>
   </si>
   <si>
-    <t>Suresh</t>
+    <t>test@123</t>
   </si>
   <si>
-    <t>Verma</t>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -87,20 +87,18 @@
       <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>5</v>
       </c>
     </row>
